--- a/v0.7/ValueSet-procedure-type-description.xlsx
+++ b/v0.7/ValueSet-procedure-type-description.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hcx-project.github.io/hcx-specs/v0.7/ValueSet-procedure-type-description.html</t>
+    <t>https://ig.hcxprotocol.io/v0.7/ValueSet-procedure-type-description.html</t>
   </si>
   <si>
     <t>Version</t>

--- a/v0.7/ValueSet-procedure-type-description.xlsx
+++ b/v0.7/ValueSet-procedure-type-description.xlsx
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This is the value set that includes the codes to identify the procedure type description and services are provided</t>
+    <t>This value set includes sample procedure codes. Depending on the context, other codes like ICD-10 procedure codes or HBP procedure codes (NHA) may need to be used.</t>
   </si>
   <si>
     <t>Purpose</t>
